--- a/biology/Botanique/Prideaux_John_Selby/Prideaux_John_Selby.xlsx
+++ b/biology/Botanique/Prideaux_John_Selby/Prideaux_John_Selby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prideaux John Selby est un ornithologue, un botaniste et un illustrateur britannique, né le 23 juillet 1788 à Alnwick, dans le Northumberland et mort le 27 mars 1867 à Twizell House.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'University College d'Oxford. Il hérite, en 1804, des propriétés familiales à Beal. Selby se marie avec Lewis Tabitha Mitford, et ont trois filles.
 Selby est surtout connu pour avoir écrit Illustrations of British Ornithology (1821-1834), premier recueil d'illustrations « grandeur nature » des oiseaux des îles Britanniques. On lui doit aussi Illustrations of Ornithology en collaboration avec William Jardine et un ouvrage sur les arbres A History of British Forest-trees (1842).
-De nombreuses illustrations de ses œuvres sont réalisées à partir des spécimens de sa collection. En addition à tout ceci, il contribue au volume sur les pigeons[1] (1835) et à celui sur les perroquets[2] du Naturalist’s Library de W. Jardine, les illustrations sont d’Edward Lear (1812-1888). Il a participé à l’édition du Magazine of Zoology and Botany. Ses collections sont vendues en 1885 et dispersées. Les oiseaux d’Afrique du Sud, qui avaient été récoltés par Sir Andrew Smith (1797-1872), de sa collection sont conservés au musée de zoologie de l’université de Cambridge.
+De nombreuses illustrations de ses œuvres sont réalisées à partir des spécimens de sa collection. En addition à tout ceci, il contribue au volume sur les pigeons (1835) et à celui sur les perroquets du Naturalist’s Library de W. Jardine, les illustrations sont d’Edward Lear (1812-1888). Il a participé à l’édition du Magazine of Zoology and Botany. Ses collections sont vendues en 1885 et dispersées. Les oiseaux d’Afrique du Sud, qui avaient été récoltés par Sir Andrew Smith (1797-1872), de sa collection sont conservés au musée de zoologie de l’université de Cambridge.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1833 : Illustrations of British ornithology[3] (W.H. Lizars, Édimbourg).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1833 : Illustrations of British ornithology (W.H. Lizars, Édimbourg).</t>
         </is>
       </c>
     </row>
